--- a/data/trans_orig/P33B_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R3-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>29326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15241</v>
+        <v>14079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54582</v>
+        <v>49801</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07191433078099946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03737439847164127</v>
+        <v>0.03452423464450267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1338468654222832</v>
+        <v>0.1221243380606429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>19150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8724</v>
+        <v>9760</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37284</v>
+        <v>36714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05282617880386324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0240650716858429</v>
+        <v>0.02692310140857522</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1028490337199835</v>
+        <v>0.1012754558863248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -783,19 +783,19 @@
         <v>48476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29468</v>
+        <v>30604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74153</v>
+        <v>75592</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06293128726745223</v>
+        <v>0.0629312872674522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03825524320199095</v>
+        <v>0.03972927549600094</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09626439016070061</v>
+        <v>0.09813219962940516</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>378467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353211</v>
+        <v>357992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>392552</v>
+        <v>393714</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9280856692190006</v>
+        <v>0.9280856692190008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8661531345777169</v>
+        <v>0.8778756619393568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9626256015283587</v>
+        <v>0.9654757653554972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>198</v>
@@ -833,19 +833,19 @@
         <v>343362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325228</v>
+        <v>325798</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353788</v>
+        <v>352752</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9471738211961367</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8971509662800159</v>
+        <v>0.8987245441136743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.975934928314157</v>
+        <v>0.9730768985914249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -854,19 +854,19 @@
         <v>721829</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>696152</v>
+        <v>694713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>740837</v>
+        <v>739701</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.937068712732548</v>
+        <v>0.9370687127325478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9037356098392989</v>
+        <v>0.9018678003705947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9617447567980087</v>
+        <v>0.9602707245039992</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16099</v>
+        <v>15161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43556</v>
+        <v>42921</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05653034829807308</v>
+        <v>0.05653034829807309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03375806437005147</v>
+        <v>0.03179160684478444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09133397175143422</v>
+        <v>0.09000158392017625</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -979,19 +979,19 @@
         <v>52941</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39765</v>
+        <v>39783</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68634</v>
+        <v>68562</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1056533872609739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07935749437701464</v>
+        <v>0.07939457157376154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1369713300806282</v>
+        <v>0.1368269391747013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1000,19 +1000,19 @@
         <v>79900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61514</v>
+        <v>62526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100945</v>
+        <v>103344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08169946361761078</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06289942665909677</v>
+        <v>0.06393466960258587</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1032188454687878</v>
+        <v>0.1056719815033984</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>449931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433334</v>
+        <v>433969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460791</v>
+        <v>461729</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9434696517019269</v>
+        <v>0.943469651701927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9086660282485657</v>
+        <v>0.9099984160798235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9662419356299485</v>
+        <v>0.9682083931552156</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>413</v>
@@ -1050,19 +1050,19 @@
         <v>448142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>432449</v>
+        <v>432521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>461318</v>
+        <v>461300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.894346612739026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8630286699193723</v>
+        <v>0.8631730608252989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9206425056229856</v>
+        <v>0.9206054284262386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>698</v>
@@ -1071,19 +1071,19 @@
         <v>898073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>877028</v>
+        <v>874629</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>916459</v>
+        <v>915447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9183005363823892</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8967811545312122</v>
+        <v>0.8943280184966015</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9371005733409034</v>
+        <v>0.9360653303974141</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>83974</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64806</v>
+        <v>66490</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103879</v>
+        <v>104908</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1354742803716124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1045513909964366</v>
+        <v>0.1072675931853183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1675868933205596</v>
+        <v>0.1692472839774804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -1196,19 +1196,19 @@
         <v>87754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74098</v>
+        <v>73764</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103384</v>
+        <v>103907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1410516510004425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.119101593963821</v>
+        <v>0.1185653331131641</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.166175784514156</v>
+        <v>0.1670160475618234</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -1217,19 +1217,19 @@
         <v>171727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149646</v>
+        <v>149498</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197961</v>
+        <v>197042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1382681080008291</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1204893237636903</v>
+        <v>0.120369555833415</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1593901055614285</v>
+        <v>0.1586506528879569</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>535875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>515970</v>
+        <v>514941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>555043</v>
+        <v>553359</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8645257196283875</v>
+        <v>0.8645257196283876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8324131066794404</v>
+        <v>0.8307527160225199</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8954486090035635</v>
+        <v>0.8927324068146816</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>729</v>
@@ -1267,19 +1267,19 @@
         <v>534385</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>518755</v>
+        <v>518232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548041</v>
+        <v>548375</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8589483489995574</v>
+        <v>0.8589483489995575</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8338242154858441</v>
+        <v>0.8329839524381768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.880898406036179</v>
+        <v>0.8814346668868364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1202</v>
@@ -1288,19 +1288,19 @@
         <v>1070261</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1044027</v>
+        <v>1044946</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1092342</v>
+        <v>1092490</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.861731891999171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8406098944385713</v>
+        <v>0.8413493471120431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8795106762363096</v>
+        <v>0.879630444166585</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>117464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99338</v>
+        <v>99091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139907</v>
+        <v>140027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1676584847308527</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1417868959910802</v>
+        <v>0.1414342169936857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1996913868172272</v>
+        <v>0.1998619802222274</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>249</v>
@@ -1413,19 +1413,19 @@
         <v>165057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147839</v>
+        <v>147454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184666</v>
+        <v>184411</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2241121525337408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.200733073187231</v>
+        <v>0.2002098681508918</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.250736685058096</v>
+        <v>0.2503895759336567</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>358</v>
@@ -1434,19 +1434,19 @@
         <v>282522</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>255108</v>
+        <v>256521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310602</v>
+        <v>312015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1965900081719551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1775145991166947</v>
+        <v>0.1784975786961878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2161289822035394</v>
+        <v>0.2171123709304851</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>583153</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>560710</v>
+        <v>560590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>601279</v>
+        <v>601526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8323415152691475</v>
+        <v>0.8323415152691472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8003086131827739</v>
+        <v>0.8001380197777724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.85821310400892</v>
+        <v>0.8585657830063141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>891</v>
@@ -1484,19 +1484,19 @@
         <v>571438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551829</v>
+        <v>552084</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>588656</v>
+        <v>589041</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7758878474662593</v>
+        <v>0.7758878474662591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7492633149419042</v>
+        <v>0.7496104240663432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.799266926812769</v>
+        <v>0.799790131849108</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1447</v>
@@ -1505,19 +1505,19 @@
         <v>1154590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1126510</v>
+        <v>1125097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1182004</v>
+        <v>1180591</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8034099918280447</v>
+        <v>0.8034099918280448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7838710177964608</v>
+        <v>0.782887629069515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8224854008833057</v>
+        <v>0.8215024213038123</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>104447</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87714</v>
+        <v>88888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123099</v>
+        <v>124608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1717133962115522</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1442030644883925</v>
+        <v>0.1461330439799048</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2023765604602465</v>
+        <v>0.2048580195839489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -1630,19 +1630,19 @@
         <v>187410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>171115</v>
+        <v>167758</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>205087</v>
+        <v>205815</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3081719786771877</v>
+        <v>0.3081719786771878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2813772796843339</v>
+        <v>0.2758572504525016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3372406960998</v>
+        <v>0.3384378169677145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>415</v>
@@ -1651,19 +1651,19 @@
         <v>291857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>263711</v>
+        <v>265804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>317992</v>
+        <v>318876</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2399352857839651</v>
+        <v>0.239935285783965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2167971191377126</v>
+        <v>0.2185178814053146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2614215007187164</v>
+        <v>0.2621478432710054</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>503818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>485166</v>
+        <v>483657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>520551</v>
+        <v>519377</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8282866037884479</v>
+        <v>0.8282866037884478</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7976234395397535</v>
+        <v>0.7951419804160511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8557969355116073</v>
+        <v>0.8538669560200955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>704</v>
@@ -1701,19 +1701,19 @@
         <v>420723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>403046</v>
+        <v>402318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>437018</v>
+        <v>440375</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6918280213228122</v>
+        <v>0.6918280213228125</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6627593039002002</v>
+        <v>0.6615621830322854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7186227203156662</v>
+        <v>0.7241427495474986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1248</v>
@@ -1722,19 +1722,19 @@
         <v>924540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>898405</v>
+        <v>897521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>952686</v>
+        <v>950593</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7600647142160351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7385784992812835</v>
+        <v>0.7378521567289946</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7832028808622874</v>
+        <v>0.7814821185946852</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>83095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69760</v>
+        <v>69979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96329</v>
+        <v>96385</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2041243100760788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1713675047574875</v>
+        <v>0.1719053938661113</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2366331006627387</v>
+        <v>0.2367706065355004</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>249</v>
@@ -1847,19 +1847,19 @@
         <v>137771</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124219</v>
+        <v>123534</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151783</v>
+        <v>151702</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3137096828013817</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.282851635386971</v>
+        <v>0.2812933763753067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3456156867967372</v>
+        <v>0.3454323874808116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>367</v>
@@ -1868,19 +1868,19 @@
         <v>220866</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>200474</v>
+        <v>201682</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>239976</v>
+        <v>241742</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2609945287638424</v>
+        <v>0.2609945287638425</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2368986029497071</v>
+        <v>0.2383257171213898</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2835769506045958</v>
+        <v>0.2856643748219064</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>323985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>310751</v>
+        <v>310695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>337320</v>
+        <v>337101</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7958756899239211</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7633668993372611</v>
+        <v>0.7632293934644995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8286324952425126</v>
+        <v>0.8280946061338889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>578</v>
@@ -1918,19 +1918,19 @@
         <v>301395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>287383</v>
+        <v>287464</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>314947</v>
+        <v>315632</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6862903171986183</v>
+        <v>0.6862903171986182</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6543843132032627</v>
+        <v>0.6545676125191885</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7171483646130288</v>
+        <v>0.7187066236246933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1030</v>
@@ -1939,19 +1939,19 @@
         <v>625380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>606270</v>
+        <v>604504</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>645772</v>
+        <v>644564</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7390054712361575</v>
+        <v>0.7390054712361576</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7164230493954039</v>
+        <v>0.7143356251780939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7631013970502927</v>
+        <v>0.7616742828786105</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>100168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86839</v>
+        <v>87283</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113668</v>
+        <v>114780</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3229168438714887</v>
+        <v>0.3229168438714888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2799483194579882</v>
+        <v>0.2813779503448459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3664380853911101</v>
+        <v>0.3700220199782331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>314</v>
@@ -2064,19 +2064,19 @@
         <v>172019</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>156329</v>
+        <v>157483</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188494</v>
+        <v>189203</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3702442502650487</v>
+        <v>0.3702442502650486</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3364739884607511</v>
+        <v>0.338958823674777</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4057041684993542</v>
+        <v>0.4072299719755819</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>465</v>
@@ -2085,19 +2085,19 @@
         <v>272187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>253343</v>
+        <v>253276</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294628</v>
+        <v>293748</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3512964637445374</v>
+        <v>0.3512964637445373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.326975779446833</v>
+        <v>0.3268891827650261</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3802593949837489</v>
+        <v>0.3791236016827101</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>210030</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196530</v>
+        <v>195418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>223359</v>
+        <v>222915</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6770831561285111</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.63356191460889</v>
+        <v>0.629977980021767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7200516805420117</v>
+        <v>0.7186220496551542</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>567</v>
@@ -2135,19 +2135,19 @@
         <v>292590</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>276115</v>
+        <v>275406</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>308280</v>
+        <v>307126</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6297557497349514</v>
+        <v>0.6297557497349513</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5942958315006458</v>
+        <v>0.5927700280244178</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6635260115392489</v>
+        <v>0.661041176325223</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>874</v>
@@ -2156,19 +2156,19 @@
         <v>502620</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>480179</v>
+        <v>481059</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>521464</v>
+        <v>521531</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6487035362554626</v>
+        <v>0.6487035362554625</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6197406050162508</v>
+        <v>0.6208763983172899</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6730242205531669</v>
+        <v>0.6731108172349739</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>545433</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>498049</v>
+        <v>496019</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>593388</v>
+        <v>589085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1544833784981426</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1410628028153882</v>
+        <v>0.1404877661425593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.168065623630614</v>
+        <v>0.1668470330535761</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1282</v>
@@ -2281,19 +2281,19 @@
         <v>822101</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>782892</v>
+        <v>778655</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>867918</v>
+        <v>866555</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2201583296902654</v>
+        <v>0.2201583296902653</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2096581977364999</v>
+        <v>0.2085233523276036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2324279539116074</v>
+        <v>0.232063047000463</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1877</v>
@@ -2302,19 +2302,19 @@
         <v>1367535</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1310397</v>
+        <v>1302608</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1433550</v>
+        <v>1427863</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1882404373811206</v>
+        <v>0.1882404373811207</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1803753939454212</v>
+        <v>0.1793032977574212</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1973274072086536</v>
+        <v>0.1965445562060301</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2985259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2937304</v>
+        <v>2941607</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3032643</v>
+        <v>3034673</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8455166215018576</v>
+        <v>0.8455166215018575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8319343763693861</v>
+        <v>0.833152966946424</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8589371971846119</v>
+        <v>0.8595122338574407</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4080</v>
@@ -2352,19 +2352,19 @@
         <v>2912036</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2866219</v>
+        <v>2867582</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2951245</v>
+        <v>2955482</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7798416703097346</v>
+        <v>0.7798416703097345</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7675720460883927</v>
+        <v>0.767936952999537</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7903418022634998</v>
+        <v>0.7914766476723964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6859</v>
@@ -2373,19 +2373,19 @@
         <v>5897295</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5831280</v>
+        <v>5836967</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5954433</v>
+        <v>5962222</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8117595626188793</v>
+        <v>0.8117595626188792</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8026725927913462</v>
+        <v>0.8034554437939702</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8196246060545789</v>
+        <v>0.8206967022425791</v>
       </c>
     </row>
     <row r="27">
